--- a/result.xlsx
+++ b/result.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,70 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiyo\OneDrive\デスクトップ\project_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3770F1AF-FB14-47E8-B5C7-39B0DBEE2E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514BDD03-C7A8-4E89-9329-BB024D53C077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14976"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>vertical</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>horizontal</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>direction</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>q3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>q4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>q5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>q6</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>distance</t>
+    <phoneticPr fontId="18"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +231,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +424,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,11 +684,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,16 +1051,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="10" max="10" width="6.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1003,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1022,8 +1102,15 @@
       <c r="F2" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f>(C3+C17+C31)/3</f>
+        <v>5.2506654665709158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1042,8 +1129,15 @@
       <c r="F3" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <f>(C4+C18)/2</f>
+        <v>4.4242298797009649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1062,8 +1156,15 @@
       <c r="F4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f>(C5+C12+C33)/3</f>
+        <v>7.8509811818782245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1082,8 +1183,15 @@
       <c r="F5" s="1">
         <v>413</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <f>(C6+C13+C27+C34)/4</f>
+        <v>3.9984555139596476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1102,8 +1210,15 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <f>(C7+C14+C28)/3</f>
+        <v>5.4822798891102336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1123,7 +1238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1142,8 +1257,14 @@
       <c r="F9" s="1">
         <v>1053</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="K9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1162,8 +1283,17 @@
       <c r="F10">
         <v>346</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>4.4242298797009649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1182,8 +1312,17 @@
       <c r="F11">
         <v>2311</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>7.8509811818782245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1202,8 +1341,17 @@
       <c r="F12" s="1">
         <v>308</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>3.9984555139596476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1222,8 +1370,17 @@
       <c r="F13" s="1">
         <v>217</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>5.4822798891102336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1243,7 +1400,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>3</v>
       </c>
